--- a/result/a.xlsx
+++ b/result/a.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="112">
+  <si>
+    <t>ip</t>
+  </si>
   <si>
     <t>domain</t>
   </si>
@@ -22,132 +25,321 @@
     <t>country</t>
   </si>
   <si>
+    <t>175.24.123.212</t>
+  </si>
+  <si>
+    <t>aapppp.cn</t>
+  </si>
+  <si>
     <t>CN</t>
   </si>
   <si>
+    <t>47.98.44.73</t>
+  </si>
+  <si>
+    <t>47.104.189.212</t>
+  </si>
+  <si>
+    <t>weilll.com.cn</t>
+  </si>
+  <si>
+    <t>8.142.26.79</t>
+  </si>
+  <si>
+    <t>jiangxidsz.com</t>
+  </si>
+  <si>
+    <t>129.211.188.108</t>
+  </si>
+  <si>
+    <t>121.5.182.165</t>
+  </si>
+  <si>
+    <t>49.232.193.219</t>
+  </si>
+  <si>
+    <t>dese.vip</t>
+  </si>
+  <si>
+    <t>47.101.156.45</t>
+  </si>
+  <si>
+    <t>jsxunzhi.com</t>
+  </si>
+  <si>
+    <t>39.99.245.236</t>
+  </si>
+  <si>
+    <t>66huai.cn</t>
+  </si>
+  <si>
+    <t>115.159.39.54</t>
+  </si>
+  <si>
+    <t>zmoive.cn</t>
+  </si>
+  <si>
+    <t>110.42.207.235</t>
+  </si>
+  <si>
+    <t>zhouwangtong.cn</t>
+  </si>
+  <si>
+    <t>124.221.188.107</t>
+  </si>
+  <si>
+    <t>jxmc01.cn</t>
+  </si>
+  <si>
+    <t>124.223.203.63</t>
+  </si>
+  <si>
+    <t>lbkz81.com</t>
+  </si>
+  <si>
+    <t>124.223.82.150</t>
+  </si>
+  <si>
+    <t>czcysoft.ltd</t>
+  </si>
+  <si>
+    <t>39.107.117.212</t>
+  </si>
+  <si>
+    <t>xinyigou88.com</t>
+  </si>
+  <si>
+    <t>47.93.216.124</t>
+  </si>
+  <si>
+    <t>175.27.221.205</t>
+  </si>
+  <si>
+    <t>hongxinnongzi.com</t>
+  </si>
+  <si>
+    <t>106.54.180.191</t>
+  </si>
+  <si>
+    <t>guozhiyushequ.com</t>
+  </si>
+  <si>
+    <t>119.45.204.23</t>
+  </si>
+  <si>
+    <t>121.43.166.239</t>
+  </si>
+  <si>
+    <t>fun-master.cn</t>
+  </si>
+  <si>
+    <t>39.106.132.61</t>
+  </si>
+  <si>
+    <t>xjmp.com</t>
+  </si>
+  <si>
+    <t>49.234.227.88</t>
+  </si>
+  <si>
+    <t>118.24.193.206</t>
+  </si>
+  <si>
     <t>cqrrzz.com</t>
   </si>
   <si>
+    <t>112.74.63.8</t>
+  </si>
+  <si>
     <t>wowotg.cn</t>
   </si>
   <si>
+    <t>112.74.179.244</t>
+  </si>
+  <si>
+    <t>117.50.42.166</t>
+  </si>
+  <si>
+    <t>39.99.183.184</t>
+  </si>
+  <si>
     <t>herotimes.net</t>
   </si>
   <si>
+    <t>60.205.94.17</t>
+  </si>
+  <si>
     <t>wmsoo.com.cn</t>
   </si>
   <si>
+    <t>47.108.178.251</t>
+  </si>
+  <si>
     <t>shandianniao.com</t>
   </si>
   <si>
+    <t>124.222.255.54</t>
+  </si>
+  <si>
+    <t>124.221.105.24</t>
+  </si>
+  <si>
     <t>daidaidui.xyz</t>
   </si>
   <si>
+    <t>124.223.39.6</t>
+  </si>
+  <si>
     <t>csxxsw.com</t>
   </si>
   <si>
+    <t>106.53.126.69</t>
+  </si>
+  <si>
+    <t>114.55.149.126</t>
+  </si>
+  <si>
     <t>xinjiangyou.cn</t>
   </si>
   <si>
+    <t>139.9.207.239</t>
+  </si>
+  <si>
     <t>lctp.vip</t>
   </si>
   <si>
+    <t>49.234.67.60</t>
+  </si>
+  <si>
+    <t>123.206.78.239</t>
+  </si>
+  <si>
     <t>jinyou315.com</t>
   </si>
   <si>
+    <t>103.39.222.229</t>
+  </si>
+  <si>
     <t>wnfwzx.cn</t>
   </si>
   <si>
+    <t>114.55.31.17</t>
+  </si>
+  <si>
     <t>tp1928.cn</t>
   </si>
   <si>
+    <t>49.232.212.44</t>
+  </si>
+  <si>
     <t>diankuai.com</t>
   </si>
   <si>
+    <t>47.122.10.134</t>
+  </si>
+  <si>
+    <t>182.92.0.7</t>
+  </si>
+  <si>
     <t>yhzav.cn</t>
   </si>
   <si>
+    <t>101.43.243.206</t>
+  </si>
+  <si>
     <t>kaola88.cn</t>
   </si>
   <si>
+    <t>47.108.132.196</t>
+  </si>
+  <si>
     <t>demux.top</t>
   </si>
   <si>
+    <t>106.14.219.30</t>
+  </si>
+  <si>
+    <t>111.231.119.29</t>
+  </si>
+  <si>
+    <t>183.61.5.27</t>
+  </si>
+  <si>
     <t>gdlywh.com</t>
   </si>
   <si>
+    <t>47.119.199.110</t>
+  </si>
+  <si>
     <t>gfk2020.com</t>
   </si>
   <si>
+    <t>219.146.148.109</t>
+  </si>
+  <si>
+    <t>119.12.169.164</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
+    <t>39.103.200.46</t>
+  </si>
+  <si>
     <t>lingbuyun.com</t>
   </si>
   <si>
+    <t>47.109.18.244</t>
+  </si>
+  <si>
     <t>maomilexiang.com</t>
   </si>
   <si>
+    <t>122.114.222.4</t>
+  </si>
+  <si>
     <t>taocaiwang.com.cn</t>
   </si>
   <si>
+    <t>118.190.3.44</t>
+  </si>
+  <si>
+    <t>121.37.171.127</t>
+  </si>
+  <si>
     <t>weiuo.cn</t>
   </si>
   <si>
+    <t>42.192.77.115</t>
+  </si>
+  <si>
+    <t>120.76.45.227</t>
+  </si>
+  <si>
     <t>shizhenpin.com</t>
   </si>
   <si>
+    <t>47.112.248.44</t>
+  </si>
+  <si>
+    <t>49.234.157.194</t>
+  </si>
+  <si>
     <t>yunshangjiling.com</t>
   </si>
   <si>
+    <t>47.92.142.92</t>
+  </si>
+  <si>
     <t>lyhx.shop</t>
   </si>
   <si>
+    <t>119.23.142.235</t>
+  </si>
+  <si>
     <t>ydnpll.com</t>
   </si>
   <si>
-    <t>srmyzx.com</t>
-  </si>
-  <si>
-    <t>zjkchuxin.com</t>
-  </si>
-  <si>
-    <t>washclothes.cn</t>
-  </si>
-  <si>
-    <t>wohuiapp.com</t>
-  </si>
-  <si>
-    <t>l0898.cn</t>
-  </si>
-  <si>
-    <t>laifengwang.com</t>
-  </si>
-  <si>
-    <t>jqtmiqd.cn</t>
-  </si>
-  <si>
-    <t>tigerdt.com</t>
-  </si>
-  <si>
-    <t>lsb178.com</t>
-  </si>
-  <si>
-    <t>zhuangligou.com</t>
-  </si>
-  <si>
-    <t>tzhanyu.cn</t>
-  </si>
-  <si>
-    <t>nsnd.vip</t>
-  </si>
-  <si>
-    <t>kd58.cc</t>
-  </si>
-  <si>
-    <t>ghome.top</t>
-  </si>
-  <si>
     <t>{</t>
   </si>
   <si>
@@ -155,6 +347,9 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -521,407 +716,1073 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
